--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125884.0293433874</v>
+        <v>123445.556243641</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>20.21682288978586</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>126.7498226612768</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.444282854104543</v>
       </c>
       <c r="G4" t="n">
-        <v>119.8620943363778</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>71.31340860081927</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>194.3344304787502</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>281.9408634908496</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.642255616477168</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,13 +1111,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>32.93805507567788</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>163.0860508096764</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>312.2568596723632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>23.1521229649033</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>61.17118126752713</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819416</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922704</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.019807611470896</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>94.91529601900947</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>140.9271808900455</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.41782514684017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>85.71023095289313</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>20.66101211578406</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444153</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060559</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>22.10695458834032</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>22.44547853568606</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G37" t="n">
-        <v>79.75167225698537</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833862</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>25.73194049497408</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,10 +3715,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>25.52471385612679</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>107.0531836110633</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1638.360256348809</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1638.360256348809</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>194.542240332463</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>194.542240332463</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>194.542240332463</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2788.565186649822</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2415.099428388742</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2024.96009641293</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1829.439076478656</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C4" t="n">
-        <v>1829.439076478656</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D4" t="n">
-        <v>1829.439076478656</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E4" t="n">
-        <v>1829.439076478656</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F4" t="n">
-        <v>1829.439076478656</v>
+        <v>138.545862493617</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>138.545862493617</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>138.545862493617</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193525</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.322864763051</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>2822.322864763051</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>2567.638376557164</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>2278.221206520203</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>2050.231655622186</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>1829.439076478656</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1032.061124352532</v>
+        <v>1243.280836875046</v>
       </c>
       <c r="C5" t="n">
-        <v>1032.061124352532</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="D5" t="n">
-        <v>673.7954257457811</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>673.7954257457811</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>262.8095209561736</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
         <v>66.51211643218343</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653545</v>
+        <v>2393.48576717606</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392465</v>
+        <v>2020.02000891498</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.660964416653</v>
+        <v>1629.880676939168</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4662,22 +4662,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>943.7005868594143</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1925.635704031445</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1703.869088600971</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1414.766221726615</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1414.766221726615</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>1125.349051689654</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X7" t="n">
-        <v>1125.349051689654</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="Y7" t="n">
-        <v>1125.349051689654</v>
+        <v>647.3667606649364</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1575.942324366272</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
         <v>1575.942324366272</v>
@@ -4796,34 +4796,34 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X8" t="n">
-        <v>1962.542164430393</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y8" t="n">
-        <v>1962.542164430393</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>724.5668517729318</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>555.630668845025</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>405.5140294326892</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>257.6009358502961</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.425065783662</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1127.007895746702</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1127.007895746702</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y10" t="n">
-        <v>906.2153166031716</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>576.8388927589107</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>407.9027098310038</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310038</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310038</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330935</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2442.902671851502</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2260.047837506407</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2040.446372529348</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220363</v>
+        <v>1751.371145873545</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014477</v>
+        <v>1496.686657667658</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977516</v>
+        <v>1207.269487630698</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079499</v>
+        <v>979.2799367326805</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935968</v>
+        <v>758.4873575891504</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2237.56669206494</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2017.965227087881</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1728.890000432079</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2110.486554626058</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>175.8744207939068</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096656</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>808.8888553856802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580255</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235159</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.5067842581</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602298</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396411</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.32989935945</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.32989935945</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.53732021592</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362702</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468476</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962607</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589159</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143766</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327661</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048592</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925235</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101303</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>149.89827541222</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806536</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630058</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6473,16 +6473,16 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468474</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891998</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446605</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2424.632826420322</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2241.777992075226</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2022.176527098168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,64 +6686,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2424.290883039164</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2241.436048694068</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2021.834583717009</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1732.759357061207</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1478.07486885532</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6932,19 +6932,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6953,7 +6953,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1888.077129657224</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2311.700279152293</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2544.961939527175</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>870.3164745246301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>701.3802915967232</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>551.2636521843874</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>403.3505586019943</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F37" t="n">
-        <v>256.4606111040839</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.96493935487</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,37 +7187,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2420.971224494428</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2238.116390149333</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,31 +7406,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>409.1360811687895</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>334.4662187308971</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.947834256224392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>25.03901180901882</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>62.35543909865076</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>191.2691783702347</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465756</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>40.09910511159904</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.2652634529516</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>131.6952193743952</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>146.5858089828438</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0033420516633</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.26829212178131</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>43.9297681744356</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G37" t="n">
-        <v>85.77246603528347</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823055</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.64330621514758</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,10 +25603,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>191.8807364711615</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>118.6564717779738</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>999460.8965497026</v>
+        <v>999460.8965497019</v>
       </c>
     </row>
     <row r="3">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1079838.291994468</v>
+        <v>1079838.291994467</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1079838.291994468</v>
+        <v>1079838.291994467</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1079838.291994468</v>
+        <v>1079838.291994467</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1079838.291994468</v>
+        <v>1079838.291994467</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1079838.291994468</v>
+        <v>1079838.291994467</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1079838.291994468</v>
+        <v>1079838.291994467</v>
       </c>
     </row>
   </sheetData>
@@ -26320,10 +26320,10 @@
         <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="G2" t="n">
         <v>343037.3048682529</v>
@@ -26332,16 +26332,16 @@
         <v>343037.3048682528</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.304868253</v>
       </c>
       <c r="J2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="K2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="L2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="M2" t="n">
         <v>343037.3048682529</v>
@@ -26350,7 +26350,7 @@
         <v>343037.3048682528</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="P2" t="n">
         <v>343037.3048682528</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.38821393015979e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.272731675146196e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972779</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.027935512</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47799.1833104798</v>
+        <v>47799.18331047964</v>
       </c>
       <c r="C4" t="n">
+        <v>90354.06702314476</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314477</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179343</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26436,25 +26436,25 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179343</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179345</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="L4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="L4" t="n">
-        <v>11167.03225179345</v>
-      </c>
       <c r="M4" t="n">
-        <v>11167.03225179343</v>
+        <v>11167.03225179349</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1167221.99345878</v>
+        <v>-1167408.386847318</v>
       </c>
       <c r="C6" t="n">
-        <v>150654.7446077823</v>
+        <v>150654.7446077824</v>
       </c>
       <c r="D6" t="n">
         <v>150654.7446077823</v>
       </c>
       <c r="E6" t="n">
-        <v>-94664.71901480306</v>
+        <v>-94699.45694023883</v>
       </c>
       <c r="F6" t="n">
-        <v>230747.7427925522</v>
+        <v>230713.0048671165</v>
       </c>
       <c r="G6" t="n">
-        <v>230747.7427925522</v>
+        <v>230713.0048671165</v>
       </c>
       <c r="H6" t="n">
-        <v>230747.7427925521</v>
+        <v>230713.0048671166</v>
       </c>
       <c r="I6" t="n">
-        <v>230747.7427925521</v>
+        <v>230713.0048671166</v>
       </c>
       <c r="J6" t="n">
-        <v>13216.54039527431</v>
+        <v>13181.80246983902</v>
       </c>
       <c r="K6" t="n">
-        <v>230747.7427925522</v>
+        <v>230713.0048671162</v>
       </c>
       <c r="L6" t="n">
-        <v>230747.7427925526</v>
+        <v>230713.0048671164</v>
       </c>
       <c r="M6" t="n">
-        <v>145692.7148570406</v>
+        <v>145657.9769316046</v>
       </c>
       <c r="N6" t="n">
-        <v>230747.7427925522</v>
+        <v>230713.0048671165</v>
       </c>
       <c r="O6" t="n">
-        <v>230747.742792552</v>
+        <v>230713.0048671166</v>
       </c>
       <c r="P6" t="n">
-        <v>230747.7427925522</v>
+        <v>230713.0048671164</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.485267412699738e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,19 +26978,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.485267412699738e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>167.8579417260437</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>107.2399275319514</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>141.9767651688267</v>
       </c>
       <c r="G4" t="n">
-        <v>46.16371392265043</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>216.5872951747032</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>67.30010522656346</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>188.1267697149647</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>192.7716003133593</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>40.83191932994379</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>57.47424100610584</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>122.2689250580279</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>164.53847412151</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,13 +28090,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.521034289075272e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338208</v>
+        <v>430.4001870301144</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>220.7280629601519</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862125</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>164.9290651940669</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043693</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422588</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>210.3948924365553</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485292</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,16 +33731,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33758,7 +33758,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>153.8606640989133</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>456.3459017226597</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394658</v>
+        <v>291.8458072502402</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>23.94570355317166</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066234</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>82.88662398579289</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.402257299892</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641942</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>22.33282074962241</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902372</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678998</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>68.26085851453701</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625077</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>283.5755383312246</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>8.181160134949316</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>318.5044627483007</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
